--- a/KBL-Business flow/target/Data/Footerlinks.xlsx
+++ b/KBL-Business flow/target/Data/Footerlinks.xlsx
@@ -14,12 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Footerlink</t>
   </si>
   <si>
-    <t>Url links</t>
+    <t>Action</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ABOUT US</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRLOSKAR BROTHERS LIMITED
+YAMUNA, S.NO.98(3 TO 7), PLOT NO.3,
+BANER, PUNE 411045, MAHARASHTRA,
+INDIA
+</t>
+  </si>
+  <si>
+    <t>1800-123-4443</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>INFO@KBL.CO.IN</t>
+  </si>
+  <si>
+    <t>VENDOR REGISTRATION</t>
   </si>
   <si>
     <t>RESIDENTIAL</t>
@@ -34,7 +62,58 @@
     <t>AGRICULTURAL</t>
   </si>
   <si>
-    <t/>
+    <t>PRESSURE BOOSTING</t>
+  </si>
+  <si>
+    <t>MINI SERIES PUMPS</t>
+  </si>
+  <si>
+    <t>OPENWELL SUBMERSIBLE PUMPS</t>
+  </si>
+  <si>
+    <t>BOREWELLL SUBMERSIBLE PUMPS</t>
+  </si>
+  <si>
+    <t>MONOBLOC PUMPS</t>
+  </si>
+  <si>
+    <t>INSTALLATION/INSPECTION</t>
+  </si>
+  <si>
+    <t>COOKIE POLICY</t>
+  </si>
+  <si>
+    <t>PRIVACY POLICY FOR WEBSITE</t>
+  </si>
+  <si>
+    <t>PRIVACY POLICY FOR PLATFORM</t>
+  </si>
+  <si>
+    <t>TERMS OF USE FOR A WEBSITE</t>
+  </si>
+  <si>
+    <t>TERMS OF USE FOR A PLATFORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DISCLAIMER</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>SIGN IN</t>
+  </si>
+  <si>
+    <t>MY ORDERS</t>
+  </si>
+  <si>
+    <t>VIEW CART</t>
+  </si>
+  <si>
+    <t>MY WISHLIST</t>
+  </si>
+  <si>
+    <t>TRACK ORDER</t>
   </si>
 </sst>
 </file>
@@ -84,9 +163,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -94,6 +182,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,91 +488,313 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="51">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
